--- a/Wine_Quality/outputs/train_90_test_10/depth_3/wq_train_90_test_10_depth_3_report.xlsx
+++ b/Wine_Quality/outputs/train_90_test_10/depth_3/wq_train_90_test_10_depth_3_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.3046875</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8010471204188482</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9216867469879518</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>498</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4935064935064935</v>
+        <v>0.8044982698961938</v>
       </c>
       <c r="C4" t="n">
-        <v>0.296875</v>
+        <v>0.9337349397590361</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3707317073170732</v>
+        <v>0.8643122676579925</v>
       </c>
       <c r="E4" t="n">
-        <v>128</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7646153846153846</v>
+        <v>0.7753846153846153</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7646153846153846</v>
+        <v>0.7753846153846153</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7646153846153846</v>
+        <v>0.7753846153846153</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7646153846153846</v>
+        <v>0.7753846153846153</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4315178713084473</v>
+        <v>0.4487216455209535</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4061872489959839</v>
+        <v>0.4128074799196788</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4092915214866434</v>
+        <v>0.4181040892193308</v>
       </c>
       <c r="E6" t="n">
         <v>650</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7109081494421808</v>
+        <v>0.7230361103717505</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7646153846153846</v>
+        <v>0.7753846153846153</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7297089252211203</v>
+        <v>0.7389961681441235</v>
       </c>
       <c r="E7" t="n">
         <v>650</v>

--- a/Wine_Quality/outputs/train_90_test_10/depth_3/wq_train_90_test_10_depth_3_report.xlsx
+++ b/Wine_Quality/outputs/train_90_test_10/depth_3/wq_train_90_test_10_depth_3_report.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.54</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3046875</v>
+        <v>0.3</v>
       </c>
       <c r="D2" t="n">
         <v>0.39</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8044982698961938</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9337349397590361</v>
+        <v>0.93</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8643122676579925</v>
+        <v>0.86</v>
       </c>
       <c r="E4" t="n">
         <v>498</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7753846153846153</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7753846153846153</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7753846153846153</v>
+        <v>0.78</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7753846153846153</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4487216455209535</v>
+        <v>0.45</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4128074799196788</v>
+        <v>0.41</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4181040892193308</v>
+        <v>0.42</v>
       </c>
       <c r="E6" t="n">
         <v>650</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7230361103717505</v>
+        <v>0.72</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7753846153846153</v>
+        <v>0.78</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7389961681441235</v>
+        <v>0.74</v>
       </c>
       <c r="E7" t="n">
         <v>650</v>
